--- a/ky/downloads/data-excel/8.10.2.2.xlsx
+++ b/ky/downloads/data-excel/8.10.2.2.xlsx
@@ -133,7 +133,7 @@
     <t>Items</t>
   </si>
   <si>
-    <t>8.10.2.2 Камсыздандыруу компанияларынын финансылык индикаторлору</t>
+    <t>8.10.2.2 Камсыздандыруу компаниялардын финансылык көрсөткүчтөрү</t>
   </si>
 </sst>
 </file>
@@ -581,11 +581,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -595,7 +593,7 @@
     <col min="10" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -616,7 +614,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -632,7 +630,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -681,8 +679,11 @@
       <c r="P3" s="8">
         <v>2022</v>
       </c>
+      <c r="Q3" s="8">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -731,8 +732,11 @@
       <c r="P4" s="10">
         <v>15</v>
       </c>
+      <c r="Q4" s="10">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="P5" s="13">
         <v>2130.4</v>
       </c>
+      <c r="Q5" s="13">
+        <v>3031.4</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="6"/>
@@ -796,7 +803,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
